--- a/excel_examples/Viva slip correction.xlsx
+++ b/excel_examples/Viva slip correction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0B3poYWGPw9k5ZjlDdGFkd1VWdk0\Horowitz Teaching\Phys 390 - 2023\student submissions\velocity and radius\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlim/Documents/Data Science Support/VHorowitz/phys-lab-tutorial/excel_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F4B2F1-7780-4411-8748-D683F23C139B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AABDDE0-579C-2F4F-A04B-935C1D21829C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{09A2283C-F853-4104-BA75-F9A9FC63AB59}"/>
+    <workbookView xWindow="5560" yWindow="4720" windowWidth="29760" windowHeight="17400" xr2:uid="{09A2283C-F853-4104-BA75-F9A9FC63AB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Viva's slip correction" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -704,6 +715,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -711,7 +723,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1098,6 +1109,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1105,7 +1117,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2330,9 +2341,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2370,7 +2381,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2476,7 +2487,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2618,7 +2629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2628,35 +2639,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A032E9-9481-4E9D-B1E8-5907560AB4FD}">
   <dimension ref="A1:BR45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2865,7 +2876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="F2">
         <v>3.4602076124567477E-5</v>
       </c>
@@ -3126,7 +3137,7 @@
         <v>1.1451966903344004</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3407,7 @@
         <v>1.1149844251021508</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1.2929999999999999</v>
       </c>
@@ -3666,7 +3677,7 @@
         <v>1.143794907099916</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3940,7 +3951,7 @@
         <v>1.000079804011607</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4210,7 +4221,7 @@
         <v>1.2900323107742131</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4227,7 +4238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>1.8490000000000001E-5</v>
       </c>
@@ -4238,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="L10">
         <f>G2/SQRT(J2)</f>
         <v>5.5162488827678793E-7</v>
@@ -4248,7 +4259,7 @@
         <v>5.4947151738989435E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>6.9367540399946039E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4292,7 +4303,7 @@
         <v>5.5481850394494324E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4314,7 +4325,7 @@
         <v>9.9931391785952552E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="L14">
         <f>G6/SQRT(J6)</f>
         <v>2.8087197632807875E-7</v>
@@ -4324,7 +4335,7 @@
         <v>2.7742902164179857E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:70" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -4332,12 +4343,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4351,7 +4362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4369,7 +4380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4380,7 +4391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4391,7 +4402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -4405,22 +4416,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="G24" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>52</v>
       </c>
@@ -4446,7 +4457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D29" s="6">
         <v>1.8172299999999999E-5</v>
       </c>
@@ -4478,7 +4489,7 @@
         <v>1.5664554697281412E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <f>K29</f>
         <v>1.5664554697281412E-5</v>
@@ -4508,7 +4519,7 @@
         <v>1.5499243248723198E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <f t="shared" ref="E31:E37" si="71">K30</f>
         <v>1.5499243248723198E-5</v>
@@ -4538,7 +4549,7 @@
         <v>1.54870859431206E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <f t="shared" si="71"/>
         <v>1.54870859431206E-5</v>
@@ -4568,7 +4579,7 @@
         <v>1.5486184898282188E-5</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <f t="shared" si="71"/>
         <v>1.5486184898282188E-5</v>
@@ -4598,7 +4609,7 @@
         <v>1.548611807851372E-5</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E34" s="1">
         <f t="shared" si="71"/>
         <v>1.548611807851372E-5</v>
@@ -4628,7 +4639,7 @@
         <v>1.5486113123075933E-5</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" s="1">
         <f t="shared" si="71"/>
         <v>1.5486113123075933E-5</v>
@@ -4658,7 +4669,7 @@
         <v>1.5486112755573291E-5</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E36" s="1">
         <f t="shared" si="71"/>
         <v>1.5486112755573291E-5</v>
@@ -4688,7 +4699,7 @@
         <v>1.5486112728318746E-5</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E37" s="1">
         <f t="shared" si="71"/>
         <v>1.5486112728318746E-5</v>
@@ -4718,7 +4729,7 @@
         <v>1.5486112726297505E-5</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E38" s="1">
         <f t="shared" ref="E38:E45" si="78">K37</f>
         <v>1.5486112726297505E-5</v>
@@ -4748,7 +4759,7 @@
         <v>1.5486112726147604E-5</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E39" s="1">
         <f t="shared" si="78"/>
         <v>1.5486112726147604E-5</v>
@@ -4778,7 +4789,7 @@
         <v>1.5486112726136491E-5</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E40" s="1">
         <f t="shared" si="78"/>
         <v>1.5486112726136491E-5</v>
@@ -4808,7 +4819,7 @@
         <v>1.5486112726135664E-5</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E41" s="1">
         <f t="shared" si="78"/>
         <v>1.5486112726135664E-5</v>
@@ -4838,7 +4849,7 @@
         <v>1.5486112726135603E-5</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E42" s="1">
         <f t="shared" si="78"/>
         <v>1.5486112726135603E-5</v>
@@ -4868,7 +4879,7 @@
         <v>1.5486112726135599E-5</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
         <f t="shared" si="78"/>
         <v>1.5486112726135599E-5</v>
@@ -4898,7 +4909,7 @@
         <v>1.5486112726135599E-5</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E44" s="1">
         <f t="shared" si="78"/>
         <v>1.5486112726135599E-5</v>
@@ -4928,7 +4939,7 @@
         <v>1.5486112726135599E-5</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E45" s="1">
         <f t="shared" si="78"/>
         <v>1.5486112726135599E-5</v>
